--- a/システム構成図.xlsx
+++ b/システム構成図.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6dd56de166b3e7a9/ドキュメント/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Cocos2dx\CollisionChaos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93E7A438-1EB8-484F-A377-AD0F9EBEED11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4799D09-6515-4843-ACB5-DB306252A2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F6D7701A-5E7F-4CD1-A0FB-FA02BC9905A7}"/>
+    <workbookView xWindow="7860" yWindow="624" windowWidth="15180" windowHeight="11028" xr2:uid="{F6D7701A-5E7F-4CD1-A0FB-FA02BC9905A7}"/>
   </bookViews>
   <sheets>
     <sheet name="システム構成図" sheetId="1" r:id="rId1"/>
@@ -1520,7 +1520,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>確率</a:t>
+            <a:t>確立</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
